--- a/test.xlsx
+++ b/test.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF7E51-C0FD-454D-9768-5EFC9E92019C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guoevelyn/Documents/GitHub/ComputingProject-2019-SM1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2740" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Student ID</t>
   </si>
@@ -163,24 +173,51 @@
   <si>
     <t>hij</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>yuxing4@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>yuxing4</t>
+  </si>
+  <si>
+    <t>ijk</t>
+  </si>
+  <si>
+    <t>Deng</t>
+  </si>
+  <si>
+    <t>Yue</t>
+  </si>
+  <si>
+    <t>deng4@student.unimelb.edu.au</t>
+  </si>
+  <si>
+    <t>deng4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -189,7 +226,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -197,21 +234,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,7 +316,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3289DEE1-55E6-4A9F-85AF-258CEEF32715}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -306,7 +343,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B20C4258-4B44-45BF-847F-B8D281C2A166}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -584,19 +621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>123456</v>
       </c>
@@ -630,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>234567</v>
       </c>
@@ -647,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>345678</v>
       </c>
@@ -664,7 +701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>456789</v>
       </c>
@@ -681,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>567891</v>
       </c>
@@ -698,7 +735,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>678912</v>
       </c>
@@ -715,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>789123</v>
       </c>
@@ -732,7 +769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>891234</v>
       </c>
@@ -749,7 +786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>912345</v>
       </c>
@@ -761,22 +798,61 @@
       </c>
       <c r="D10" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>875698</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>111111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A7FC963B-8121-9F4E-B6E1-7D85406B0A2E}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{6B4C8D2D-C32A-1D41-85D7-73DE4DF60786}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{8B564BC7-60A7-401C-BC59-CE2ADB4CCEC9}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{3F8E479D-9C03-49F1-8706-F9EC8CBA59E2}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{E3AC14EC-348E-40E7-8887-346943AF4350}"/>
-    <hyperlink ref="D7:D10" r:id="rId6" display="efg@student.unimelb.edu.au" xr:uid="{730B76C2-92D5-4EB0-84D7-DA0CADA864F1}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{7BF2331B-D71A-48AA-B976-3A59E403436A}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{6CE16745-A061-4D1C-B5C1-5E7E25AF976E}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{706A3162-75FC-40EC-8DC4-4E11BD46B78B}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7:D10" r:id="rId6" display="efg@student.unimelb.edu.au"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>